--- a/xlsx/元旦_intext.xlsx
+++ b/xlsx/元旦_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
   <si>
     <t>元旦</t>
   </si>
@@ -29,7 +29,7 @@
     <t>公历</t>
   </si>
   <si>
-    <t>政策_政策_美國_元旦</t>
+    <t>政策_政策_美国_元旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1%E6%9C%881%E6%97%A5</t>
@@ -53,37 +53,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD</t>
   </si>
   <si>
-    <t>太陽</t>
+    <t>太阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%B9%B3%E7%B7%9A</t>
   </si>
   <si>
-    <t>地平線</t>
+    <t>地平线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9B%86</t>
   </si>
   <si>
-    <t>公曆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%9B%86%E6%96%B0%E5%B9%B4</t>
   </si>
   <si>
-    <t>農曆新年</t>
+    <t>农历新年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%AF%80</t>
   </si>
   <si>
-    <t>春節</t>
+    <t>春节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%88%9D%E6%9B%86</t>
   </si>
   <si>
-    <t>太初曆</t>
+    <t>太初历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E4%BA%A5%E9%9D%A9%E5%91%BD</t>
@@ -173,9 +170,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华民国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%99%E4%B8%AD%E5%B1%B1</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E8%8A%82</t>
   </si>
   <si>
-    <t>春节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B9%B4</t>
   </si>
   <si>
@@ -209,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%9B%86</t>
   </si>
   <si>
-    <t>西曆</t>
+    <t>西历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4</t>
@@ -221,31 +212,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%9B%86</t>
   </si>
   <si>
-    <t>夏曆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%81%E4%B8%96%E5%87%B1</t>
   </si>
   <si>
-    <t>袁世凱</t>
+    <t>袁世凯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E9%96%8B%E5%9C%8B%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>中華民國開國紀念日</t>
+    <t>中华民国开国纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%AE%9A%E5%81%87%E6%97%A5</t>
   </si>
   <si>
-    <t>中華民國國定假日</t>
+    <t>中华民国国定假日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4</t>
@@ -263,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%85%AC%E7%9C%BE%E5%81%87%E6%9C%9F</t>
   </si>
   <si>
-    <t>香港公眾假期</t>
+    <t>香港公众假期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E5%BA%93%E9%98%BF%E6%B4%9B%E6%B3%95</t>
@@ -287,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0</t>
   </si>
   <si>
-    <t>東加</t>
+    <t>东加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%BA%E5%B9%B4%E5%8D%A1</t>
@@ -323,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%96%B0%E5%B9%B4</t>
   </si>
   <si>
-    <t>臺灣新年</t>
+    <t>台湾新年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%96%B0%E5%B9%B4</t>
@@ -335,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%96%B0%E5%B9%B4</t>
   </si>
   <si>
-    <t>朝鮮新年</t>
+    <t>朝鲜新年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%96%B0%E5%B9%B4</t>
@@ -353,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E4%BA%94%E7%AF%80</t>
   </si>
   <si>
-    <t>破五節</t>
+    <t>破五节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%97%A5</t>
@@ -371,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E5%AE%B5%E7%AF%80_(%E8%8F%AF%E4%BA%BA)</t>
   </si>
   <si>
-    <t>元宵節 (華人)</t>
+    <t>元宵节 (华人)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%BB%BF%E6%9C%88</t>
   </si>
   <si>
-    <t>大滿月</t>
+    <t>大满月</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E6%97%A5%E6%AD%A3%E6%9C%88</t>
@@ -395,25 +383,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%92%8C%E7%AF%80</t>
   </si>
   <si>
-    <t>中和節</t>
+    <t>中和节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B7%B3%E7%AF%80</t>
   </si>
   <si>
-    <t>上巳節</t>
+    <t>上巳节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9B%E7%A5%AD</t>
   </si>
   <si>
-    <t>雛祭</t>
+    <t>雏祭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E4%B8%8A%E5%B7%B3%E7%AF%80</t>
   </si>
   <si>
-    <t>朝鮮上巳節</t>
+    <t>朝鲜上巳节</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%B5%9C%E4%B8%8B%E3%82%8A</t>
@@ -431,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E6%B0%A3</t>
   </si>
   <si>
-    <t>節氣</t>
+    <t>节气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%98%A5</t>
@@ -449,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%9A%E8%9F%84</t>
   </si>
   <si>
-    <t>驚蟄</t>
+    <t>惊蛰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%88%86</t>
@@ -467,37 +455,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E9%9B%A8</t>
   </si>
   <si>
-    <t>穀雨</t>
+    <t>谷雨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%AF%E5%8D%88%E7%AF%80</t>
   </si>
   <si>
-    <t>端午節</t>
+    <t>端午节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%AF%E5%8D%88%E7%AF%80_(%E8%8F%AF%E4%BA%BA)</t>
   </si>
   <si>
-    <t>端午節 (華人)</t>
+    <t>端午节 (华人)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%AB%AF%E5%8D%88%E7%AF%80</t>
   </si>
   <si>
-    <t>台灣端午節</t>
+    <t>台湾端午节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%AF%E5%8D%88%E7%AF%80_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>端午節 (日本)</t>
+    <t>端午节 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%85%92%E7%AB%A5%E7%AF%80</t>
   </si>
   <si>
-    <t>日本兒童節</t>
+    <t>日本儿童节</t>
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/%ED%95%9C%EA%B5%AD%EC%9D%98_%EB%8B%A8%EC%98%A4</t>
@@ -527,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%BB%BF</t>
   </si>
   <si>
-    <t>小滿</t>
+    <t>小满</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%92%E7%A7%8D</t>
@@ -563,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%A4%95_(%E8%8F%AF%E4%BA%BA)</t>
   </si>
   <si>
-    <t>七夕 (華人)</t>
+    <t>七夕 (华人)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E4%B8%83%E5%A4%95</t>
@@ -581,25 +569,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E7%AF%80%E8%88%87%E7%9B%82%E8%98%AD%E7%9B%86%E7%AF%80</t>
   </si>
   <si>
-    <t>中元節與盂蘭盆節</t>
+    <t>中元节与盂兰盆节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E7%AF%80%E8%88%87%E7%9B%82%E8%98%AD%E7%9B%86%E7%AF%80_(%E8%8F%AF%E4%BA%BA)</t>
   </si>
   <si>
-    <t>中元節與盂蘭盆節 (華人)</t>
+    <t>中元节与盂兰盆节 (华人)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%82%E8%98%AD%E7%9B%86%E7%AF%80_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>盂蘭盆節 (日本)</t>
+    <t>盂兰盆节 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E4%B8%AD%E5%85%83%E7%AF%80</t>
   </si>
   <si>
-    <t>朝鮮中元節</t>
+    <t>朝鲜中元节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%A7%8B%E8%8A%82</t>
@@ -611,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%A7%8B%E7%AF%80_(%E8%8F%AF%E4%BA%BA)</t>
   </si>
   <si>
-    <t>中秋節 (華人)</t>
+    <t>中秋节 (华人)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%94%E5%A4%9C_(%E6%97%A5%E6%9C%AC)</t>
@@ -623,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8B%E5%A4%95_(%E6%9C%9D%E9%AE%AE)</t>
   </si>
   <si>
-    <t>秋夕 (朝鮮)</t>
+    <t>秋夕 (朝鲜)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E9%98%B3%E8%8A%82</t>
@@ -635,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E6%88%90%E7%AF%80</t>
   </si>
   <si>
-    <t>十成節</t>
+    <t>十成节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E7%A7%8B</t>
@@ -647,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%95%E6%9A%91</t>
   </si>
   <si>
-    <t>處暑</t>
+    <t>处暑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%9C%B2</t>
@@ -737,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%85%83%E7%AF%80</t>
   </si>
   <si>
-    <t>三元節</t>
+    <t>三元节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%85%83%E8%8A%82</t>
@@ -749,9 +737,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%85%83%E7%AF%80</t>
   </si>
   <si>
-    <t>下元節</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%97%A5</t>
   </si>
   <si>
@@ -761,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%B2%B8_(%E7%AF%80%E6%97%A5)</t>
   </si>
   <si>
-    <t>彼岸 (節日)</t>
+    <t>彼岸 (节日)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E5%8D%8E%E5%9C%B0%E5%8C%BA</t>
@@ -779,43 +764,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E7%89%99</t>
   </si>
   <si>
-    <t>頭牙</t>
+    <t>头牙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A9%BF%E7%AF%80</t>
   </si>
   <si>
-    <t>天穿節</t>
+    <t>天穿节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E6%8A%AC%E9%A0%AD</t>
   </si>
   <si>
-    <t>龍抬頭</t>
+    <t>龙抬头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%9C%9D%E7%AF%80</t>
   </si>
   <si>
-    <t>花朝節</t>
+    <t>花朝节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E5%B8%9D%E8%AA%95</t>
   </si>
   <si>
-    <t>黃帝誕</t>
+    <t>黄帝诞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%B2%BA%E7%AF%80</t>
   </si>
   <si>
-    <t>天貺節</t>
+    <t>天贶节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%A5%9E%E7%AF%80</t>
   </si>
   <si>
-    <t>財神節</t>
+    <t>财神节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E8%A1%A3%E8%8A%82</t>
@@ -881,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B0%91%E6%97%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國民族列表</t>
+    <t>中国民族列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E5%8E%86%E6%96%B0%E5%B9%B4</t>
@@ -905,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E9%BD%8B%E7%AF%80</t>
   </si>
   <si>
-    <t>開齋節</t>
+    <t>开斋节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%BC%E6%B0%B4%E8%8A%82</t>
@@ -929,13 +914,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E7%AF%80</t>
   </si>
   <si>
-    <t>耶穌受難節</t>
+    <t>耶稣受难节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%80%B1%E5%85%AD</t>
   </si>
   <si>
-    <t>聖週六</t>
+    <t>圣周六</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%B4%BB%E8%8A%82%E6%98%9F%E6%9C%9F%E4%B8%80</t>
@@ -947,13 +932,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%AA%95</t>
   </si>
   <si>
-    <t>佛誕</t>
+    <t>佛诞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E6%88%90%E7%AB%8B%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>香港特別行政區成立紀念日</t>
+    <t>香港特别行政区成立纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E8%8A%82</t>
@@ -965,43 +950,40 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%A6%AE%E6%97%A5</t>
   </si>
   <si>
-    <t>節禮日</t>
+    <t>节礼日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%94%BF%E5%BA%9C%E5%81%87%E6%9C%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>澳門政府假期列表</t>
+    <t>澳门政府假期列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E6%97%A5</t>
   </si>
   <si>
-    <t>耶穌受難日</t>
+    <t>耶稣受难日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%91%A8%E5%85%AD</t>
   </si>
   <si>
-    <t>圣周六</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%BD%E6%80%9D%E7%AF%80</t>
   </si>
   <si>
-    <t>追思節</t>
+    <t>追思节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E7%84%A1%E5%8E%9F%E7%BD%AA%E7%9E%BB%E7%A6%AE</t>
   </si>
   <si>
-    <t>聖母無原罪瞻禮</t>
+    <t>圣母无原罪瞻礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%9B%9E%E6%AD%B8</t>
   </si>
   <si>
-    <t>澳門回歸</t>
+    <t>澳门回归</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%A4%9C</t>
@@ -1013,13 +995,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%AF%80%E6%97%A5%E8%88%87%E6%AD%B2%E6%99%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中華民國節日與歲時列表</t>
+    <t>中华民国节日与岁时列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%9B%86%E9%99%A4%E5%A4%95</t>
   </si>
   <si>
-    <t>農曆除夕</t>
+    <t>农历除夕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%9C%88%E5%88%9D%E4%B8%80</t>
@@ -1043,13 +1025,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E7%B4%80%E5%BF%B5%E6%97%A5_(%E8%87%BA%E7%81%A3)</t>
   </si>
   <si>
-    <t>和平紀念日 (臺灣)</t>
+    <t>和平纪念日 (台湾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E7%AF%80</t>
   </si>
   <si>
-    <t>婦女節</t>
+    <t>妇女节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E4%BE%B5%E7%95%A5%E6%97%A5</t>
@@ -1061,127 +1043,124 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD%E5%85%88%E7%83%88%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>革命先烈紀念日</t>
+    <t>革命先烈纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E7%AF%80</t>
   </si>
   <si>
-    <t>兒童節</t>
+    <t>儿童节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E6%8E%83%E5%A2%93%E7%AF%80</t>
   </si>
   <si>
-    <t>民族掃墓節</t>
+    <t>民族扫墓节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%AF%80</t>
   </si>
   <si>
-    <t>勞動節</t>
+    <t>劳动节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E9%99%80%E8%AA%95%E8%BE%B0%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>佛陀誕辰紀念日</t>
+    <t>佛陀诞辰纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%9A%B4%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>解嚴紀念日</t>
+    <t>解严纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%BA%E7%AF%80</t>
   </si>
   <si>
-    <t>軍人節</t>
+    <t>军人节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%94%E5%AD%90%E8%AA%95%E8%BE%B0%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>孔子誕辰紀念日</t>
+    <t>孔子诞辰纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%85%B6%E6%97%A5_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國慶日 (中華民國)</t>
+    <t>国庆日 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%85%89%E5%BE%A9%E7%AF%80</t>
   </si>
   <si>
-    <t>臺灣光復節</t>
+    <t>台湾光复节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%86%B2%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>行憲紀念日</t>
+    <t>行宪纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B0%91%E9%96%93%E4%BF%A1%E4%BB%B0</t>
   </si>
   <si>
-    <t>台灣民間信仰</t>
+    <t>台湾民间信仰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%85%83%E8%8A%82</t>
   </si>
   <si>
-    <t>三元节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%85%83%E5%AE%B5%E7%AF%80</t>
   </si>
   <si>
-    <t>台灣元宵節</t>
+    <t>台湾元宵节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%87%88%E6%9C%83</t>
   </si>
   <si>
-    <t>臺灣燈會</t>
+    <t>台湾灯会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E7%87%88%E7%AF%80</t>
   </si>
   <si>
-    <t>臺北燈節</t>
+    <t>台北灯节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9B%84%E7%87%88%E6%9C%83%E8%97%9D%E8%A1%93%E7%AF%80</t>
   </si>
   <si>
-    <t>高雄燈會藝術節</t>
+    <t>高雄灯会艺术节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%B0%E7%81%A3%E5%85%83%E5%AE%B5%E7%87%88%E6%9C%83</t>
   </si>
   <si>
-    <t>中台灣元宵燈會</t>
+    <t>中台湾元宵灯会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%BA%AA%E5%A4%A9%E7%87%88%E7%AF%80</t>
   </si>
   <si>
-    <t>平溪天燈節</t>
+    <t>平溪天灯节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%97%E6%A0%97%F0%AA%B9%9A%E9%BE%8D</t>
   </si>
   <si>
-    <t>苗栗𪹚龍</t>
+    <t>苗栗𪹚龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E6%B0%B4%E8%9C%82%E7%82%AE</t>
   </si>
   <si>
-    <t>鹽水蜂炮</t>
+    <t>盐水蜂炮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E6%9C%88</t>
@@ -1193,25 +1172,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9E%E7%B1%A0%E4%B8%AD%E5%85%83%E7%A5%AD</t>
   </si>
   <si>
-    <t>雞籠中元祭</t>
+    <t>鸡笼中元祭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%B6%E5%AD%A4</t>
   </si>
   <si>
-    <t>搶孤</t>
+    <t>抢孤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E4%B8%AD%E5%85%83%E6%B3%95%E6%9C%83</t>
   </si>
   <si>
-    <t>台灣中元法會</t>
+    <t>台湾中元法会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A3%AB%E7%88%BA</t>
   </si>
   <si>
-    <t>大士爺</t>
+    <t>大士爷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%AE%98%E5%A4%A7%E5%B8%9D</t>
@@ -1223,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%96%87%E5%8C%96%E6%B4%BB%E5%8B%95%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>台灣文化活動列表</t>
+    <t>台湾文化活动列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%85%AC%E5%85%B1%E5%81%87%E6%97%A5</t>
@@ -1235,7 +1214,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%97%A5</t>
   </si>
   <si>
-    <t>澳大利亞日</t>
+    <t>澳大利亚日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E5%86%9B%E5%9B%A2%E6%97%A5</t>
@@ -1253,9 +1232,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%82%E7%A4%BC%E6%97%A5</t>
   </si>
   <si>
-    <t>节礼日</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%8A%82%E6%97%A5</t>
   </si>
   <si>
@@ -1271,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E6%97%A5</t>
   </si>
   <si>
-    <t>維多利亞日</t>
+    <t>维多利亚日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E6%81%A9%E8%8A%82</t>
@@ -1283,13 +1259,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AE%A4%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>國殤紀念日</t>
+    <t>国殇纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>Template talk-美國節日</t>
+    <t>Template talk-美国节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
@@ -1337,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%81%B0%E6%98%9F%E6%9C%9F%E4%B8%89</t>
   </si>
   <si>
-    <t>聖灰星期三</t>
+    <t>圣灰星期三</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%81%AF%E8%8A%82</t>
@@ -1367,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%BA%E6%82%94%E6%98%9F%E6%9C%9F%E4%BA%8C</t>
   </si>
   <si>
-    <t>懺悔星期二</t>
+    <t>忏悔星期二</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%9E%9D%E4%B8%BB%E6%97%A5</t>
@@ -1439,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E5%BE%B7%E9%AD%AF%E6%97%A5</t>
   </si>
   <si>
-    <t>聖安德魯日</t>
+    <t>圣安德鲁日</t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2018,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
@@ -2068,10 +2044,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -2097,10 +2073,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
@@ -2126,10 +2102,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2155,10 +2131,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2184,10 +2160,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2213,10 +2189,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2242,10 +2218,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
@@ -2271,10 +2247,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2300,10 +2276,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2329,10 +2305,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2358,10 +2334,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -2387,10 +2363,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2416,10 +2392,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2445,10 +2421,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2474,10 +2450,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2503,10 +2479,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -2532,10 +2508,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2561,10 +2537,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -2590,10 +2566,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
@@ -2619,10 +2595,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G29" t="n">
         <v>24</v>
@@ -2648,10 +2624,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2677,10 +2653,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2706,10 +2682,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2735,10 +2711,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2764,10 +2740,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2793,10 +2769,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2822,10 +2798,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>7</v>
@@ -2851,10 +2827,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2880,10 +2856,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2909,10 +2885,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2938,10 +2914,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -2967,10 +2943,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2996,10 +2972,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3025,10 +3001,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -3054,10 +3030,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3083,10 +3059,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3112,10 +3088,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3141,10 +3117,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3170,10 +3146,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -3199,10 +3175,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3228,10 +3204,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3257,10 +3233,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
         <v>21</v>
-      </c>
-      <c r="F51" t="s">
-        <v>22</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3286,10 +3262,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3315,10 +3291,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3344,10 +3320,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3373,10 +3349,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3402,10 +3378,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3431,10 +3407,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3460,10 +3436,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3489,10 +3465,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3518,10 +3494,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3547,10 +3523,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3576,10 +3552,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3605,10 +3581,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3634,10 +3610,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3663,10 +3639,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -3692,10 +3668,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3721,10 +3697,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3750,10 +3726,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3779,10 +3755,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3808,10 +3784,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3837,10 +3813,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3866,10 +3842,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3895,10 +3871,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3924,10 +3900,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -3953,10 +3929,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -3982,10 +3958,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4011,10 +3987,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>9</v>
@@ -4040,10 +4016,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4069,10 +4045,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4098,10 +4074,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4127,10 +4103,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4156,10 +4132,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4185,10 +4161,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4214,10 +4190,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4243,10 +4219,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4272,10 +4248,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4301,10 +4277,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4330,10 +4306,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4359,10 +4335,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4388,10 +4364,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4417,10 +4393,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>6</v>
@@ -4446,10 +4422,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4475,10 +4451,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4504,10 +4480,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4533,10 +4509,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4562,10 +4538,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4591,10 +4567,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4620,10 +4596,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4649,10 +4625,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -4678,10 +4654,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4707,10 +4683,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4736,10 +4712,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4765,10 +4741,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4794,10 +4770,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4823,10 +4799,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4852,10 +4828,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4881,10 +4857,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4910,10 +4886,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4939,10 +4915,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4968,10 +4944,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4997,10 +4973,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5026,10 +5002,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5055,10 +5031,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5084,10 +5060,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5113,10 +5089,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5142,10 +5118,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5171,10 +5147,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5200,10 +5176,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5229,10 +5205,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5258,10 +5234,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5287,10 +5263,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5316,10 +5292,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5345,10 +5321,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F123" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G123" t="n">
         <v>7</v>
@@ -5374,10 +5350,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -5403,10 +5379,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5432,10 +5408,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5461,10 +5437,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5490,10 +5466,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
@@ -5519,10 +5495,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5548,10 +5524,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5577,10 +5553,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5606,10 +5582,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5635,10 +5611,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5664,10 +5640,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5693,10 +5669,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5722,10 +5698,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5751,10 +5727,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5780,10 +5756,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5809,10 +5785,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5838,10 +5814,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5867,10 +5843,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F141" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5896,10 +5872,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>6</v>
@@ -5925,10 +5901,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F143" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -5954,10 +5930,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5983,10 +5959,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6012,10 +5988,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6041,10 +6017,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6070,10 +6046,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6099,10 +6075,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6128,10 +6104,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6157,10 +6133,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6186,10 +6162,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6215,10 +6191,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6244,10 +6220,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6273,10 +6249,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6302,10 +6278,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6331,10 +6307,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6360,10 +6336,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
         <v>5</v>
@@ -6389,10 +6365,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6418,10 +6394,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6447,10 +6423,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F161" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6476,10 +6452,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F162" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6505,10 +6481,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>7</v>
@@ -6534,10 +6510,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6563,10 +6539,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6592,10 +6568,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>5</v>
@@ -6621,10 +6597,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6650,10 +6626,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F168" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6679,10 +6655,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F169" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6708,10 +6684,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6737,10 +6713,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6766,10 +6742,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6795,10 +6771,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6853,10 +6829,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6882,10 +6858,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6911,10 +6887,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6940,10 +6916,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6969,10 +6945,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6998,10 +6974,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7027,10 +7003,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7056,10 +7032,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7085,10 +7061,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7114,10 +7090,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7143,10 +7119,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7172,10 +7148,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7201,10 +7177,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7230,10 +7206,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7259,10 +7235,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7288,10 +7264,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7317,10 +7293,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7346,10 +7322,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F192" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G192" t="n">
         <v>5</v>
@@ -7375,10 +7351,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F193" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7404,10 +7380,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F194" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7433,10 +7409,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F195" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7462,10 +7438,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F196" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7491,10 +7467,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F197" t="s">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7520,10 +7496,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F198" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7549,10 +7525,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F199" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7578,10 +7554,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F200" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7607,10 +7583,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F201" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7636,10 +7612,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F202" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7665,10 +7641,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F203" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7694,10 +7670,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F204" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7723,13 +7699,13 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F205" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -7752,10 +7728,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F206" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7781,10 +7757,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F207" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7810,10 +7786,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F208" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7839,10 +7815,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F209" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7868,10 +7844,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F210" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7897,10 +7873,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F211" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7926,10 +7902,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F212" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7955,10 +7931,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7984,10 +7960,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8013,10 +7989,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F215" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8042,10 +8018,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F216" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8071,10 +8047,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F217" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8100,10 +8076,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F218" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8129,10 +8105,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8158,10 +8134,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -8187,10 +8163,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8216,10 +8192,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8245,10 +8221,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F223" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8274,10 +8250,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8303,10 +8279,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F225" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8332,10 +8308,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G226" t="n">
         <v>7</v>
@@ -8361,10 +8337,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F227" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8390,10 +8366,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8419,10 +8395,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8448,10 +8424,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8477,10 +8453,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F231" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8506,10 +8482,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F232" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8535,10 +8511,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F233" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8564,10 +8540,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F234" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8593,10 +8569,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F235" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8622,10 +8598,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F236" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G236" t="n">
         <v>7</v>
@@ -8651,10 +8627,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F237" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8680,10 +8656,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F238" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8709,10 +8685,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F239" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8738,10 +8714,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F240" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8767,10 +8743,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F241" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8796,10 +8772,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F242" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8825,10 +8801,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8854,10 +8830,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8883,10 +8859,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F245" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -8912,10 +8888,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F246" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8941,10 +8917,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F247" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -8970,10 +8946,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F248" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -8999,10 +8975,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F249" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G249" t="n">
         <v>4</v>
@@ -9028,10 +9004,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G250" t="n">
         <v>4</v>
@@ -9057,10 +9033,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F251" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
